--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190A224-7731-449F-B6BD-92391FE0F87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -237,14 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,115 +274,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -390,35 +281,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,188 +306,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -626,254 +315,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,61 +338,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1229,34 +636,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7083333333333" style="4" customWidth="1"/>
-    <col min="2" max="4" width="12.5666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.1416666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.5666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.7083333333333" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.8583333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.5666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.8583333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5666666666667" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="12.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:12">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -1405,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="2:12">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -1440,7 +847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="2:12">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -1475,7 +882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="2:12">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1001</v>
       </c>
@@ -1510,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1002</v>
       </c>
@@ -1545,7 +952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1002</v>
       </c>
@@ -1580,7 +987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1002</v>
       </c>
@@ -1615,7 +1022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1002</v>
       </c>
@@ -1650,42 +1057,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="10:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1698,7 +1104,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>59</v>
       </c>
@@ -1732,7 +1138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>63</v>
       </c>
@@ -1740,7 +1146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>65</v>
       </c>
@@ -1752,8 +1158,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F190A224-7731-449F-B6BD-92391FE0F87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F471E-61FC-4FAC-8A95-758AE37612D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,24 +17,11 @@
     <sheet name="#说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -244,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +273,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -320,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -335,6 +329,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +642,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -945,11 +942,11 @@
       <c r="J8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>31</v>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -980,11 +977,11 @@
       <c r="J9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>31</v>
+      <c r="K9" s="10">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1015,11 +1012,11 @@
       <c r="J10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>31</v>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1050,11 +1047,11 @@
       <c r="J11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>31</v>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F471E-61FC-4FAC-8A95-758AE37612D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D137719-5C9B-41BC-84CE-AA3AF7DBD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>0,1,2000</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>10,20</t>
   </si>
   <si>
     <t>扩散吞噬2级</t>
@@ -642,7 +636,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -802,11 +796,11 @@
       <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -823,10 +817,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3">
         <v>1000</v>
@@ -835,13 +829,13 @@
         <v>3000</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -858,10 +852,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3">
         <v>1000</v>
@@ -870,13 +864,13 @@
         <v>3000</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -893,10 +887,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3">
         <v>1000</v>
@@ -905,13 +899,13 @@
         <v>3000</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -928,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3">
         <v>1000</v>
@@ -940,13 +934,13 @@
         <v>2000</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="3">
         <v>2</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -963,10 +957,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -975,13 +969,13 @@
         <v>2000</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9" s="10">
         <v>2</v>
       </c>
       <c r="L9" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -998,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3">
         <v>1000</v>
@@ -1010,13 +1004,13 @@
         <v>2000</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3">
         <v>2</v>
       </c>
       <c r="L10" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1033,10 +1027,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3">
         <v>1000</v>
@@ -1045,13 +1039,13 @@
         <v>2000</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3">
         <v>2</v>
       </c>
       <c r="L11" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1090,7 +1084,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1106,52 +1100,52 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D137719-5C9B-41BC-84CE-AA3AF7DBD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF794E-A171-4C6D-B79B-4F318123492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -35,9 +35,6 @@
     <t>AbstractType</t>
   </si>
   <si>
-    <t>##Test</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>CD</t>
   </si>
   <si>
-    <t>##Params</t>
-  </si>
-  <si>
     <t>ActionEventIds</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>技能抽象类型</t>
   </si>
   <si>
-    <t>测试说明</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -110,70 +101,46 @@
     <t>爆发混沌之力，吸食2m附近食物</t>
   </si>
   <si>
-    <t>0,1,2000</t>
-  </si>
-  <si>
     <t>扩散吞噬2级</t>
   </si>
   <si>
     <t>爆发混沌之力，吸食3m附近食物</t>
   </si>
   <si>
-    <t>0,1,3000</t>
-  </si>
-  <si>
     <t>扩散吞噬3级</t>
   </si>
   <si>
     <t>爆发混沌之力，吸食4m附近食物</t>
   </si>
   <si>
-    <t>0,1,4000</t>
-  </si>
-  <si>
     <t>扩散吞噬4级</t>
   </si>
   <si>
     <t>爆发混沌之力，吸食5m附近食物</t>
   </si>
   <si>
-    <t>0,1,5000</t>
-  </si>
-  <si>
     <t>随机喷射1级</t>
   </si>
   <si>
     <t>随机方向间隔发射1颗子弹</t>
   </si>
   <si>
-    <t>0,2,300,1500,1</t>
-  </si>
-  <si>
     <t>随机喷射2级</t>
   </si>
   <si>
     <t>随机方向间隔发射2颗子弹</t>
   </si>
   <si>
-    <t>0,2,300,1500,2</t>
-  </si>
-  <si>
     <t>随机喷射3级</t>
   </si>
   <si>
     <t>随机方向间隔发射3颗子弹</t>
   </si>
   <si>
-    <t>0,2,300,1500,3</t>
-  </si>
-  <si>
     <t>随机喷射4级</t>
   </si>
   <si>
     <t>随机方向间隔发射4颗子弹</t>
-  </si>
-  <si>
-    <t>0,2,300,1500,4</t>
   </si>
   <si>
     <t>##技能数据来源可以来源编辑器，可自行开发TimeLine时间轴编辑不同技能数据</t>
@@ -308,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -316,15 +283,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,142 +596,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
     <col min="2" max="4" width="12.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -779,31 +722,25 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1000</v>
       </c>
       <c r="H4" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I4" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -814,31 +751,25 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -849,31 +780,25 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000</v>
       </c>
       <c r="H6" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1001</v>
       </c>
@@ -884,31 +809,25 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1000</v>
       </c>
       <c r="H7" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1002</v>
       </c>
@@ -919,31 +838,25 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3">
+        <v>1101</v>
+      </c>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1002</v>
       </c>
@@ -954,31 +867,25 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1000</v>
       </c>
       <c r="H9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="10">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="I9" s="8">
+        <v>1102</v>
+      </c>
+      <c r="J9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1002</v>
       </c>
@@ -989,31 +896,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
       </c>
       <c r="H10" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3">
+        <v>1103</v>
+      </c>
+      <c r="J10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1002</v>
       </c>
@@ -1024,41 +925,23 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1000</v>
       </c>
       <c r="H11" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3">
+        <v>1104</v>
+      </c>
+      <c r="J11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1084,7 +967,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1097,55 +980,55 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF794E-A171-4C6D-B79B-4F318123492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE5007-A7FD-4B7A-A617-DC62F91493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -186,13 +186,33 @@
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>SkillIndicatorType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESkillIndicatorType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能指示器类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonAttack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +261,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -275,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -291,6 +319,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -612,10 +642,11 @@
     <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" style="4" customWidth="1"/>
     <col min="10" max="10" width="27.44140625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="11" max="11" width="20.33203125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -646,8 +677,11 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -678,8 +712,11 @@
       <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -710,8 +747,11 @@
       <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -739,8 +779,11 @@
       <c r="J4" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -768,8 +811,11 @@
       <c r="J5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -797,8 +843,11 @@
       <c r="J6" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1001</v>
       </c>
@@ -826,8 +875,11 @@
       <c r="J7" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1002</v>
       </c>
@@ -855,8 +907,11 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1002</v>
       </c>
@@ -884,8 +939,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1002</v>
       </c>
@@ -913,8 +971,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1002</v>
       </c>
@@ -941,6 +1002,9 @@
       </c>
       <c r="J11" s="3">
         <v>0</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE5007-A7FD-4B7A-A617-DC62F91493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E1335-23C9-4F00-9432-F0DF74559538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>CommonAttack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIndicatorParams</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能指示器参数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -641,12 +653,13 @@
     <col min="7" max="7" width="14.88671875" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="10" max="10" width="17" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -680,8 +693,11 @@
       <c r="K1" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -715,8 +731,11 @@
       <c r="K2" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -750,8 +769,11 @@
       <c r="K3" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -782,8 +804,11 @@
       <c r="K4" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -814,8 +839,11 @@
       <c r="K5" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -846,8 +874,11 @@
       <c r="K6" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1001</v>
       </c>
@@ -878,8 +909,11 @@
       <c r="K7" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1002</v>
       </c>
@@ -910,8 +944,11 @@
       <c r="K8" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1002</v>
       </c>
@@ -942,8 +979,11 @@
       <c r="K9" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1002</v>
       </c>
@@ -974,8 +1014,11 @@
       <c r="K10" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1002</v>
       </c>
@@ -1005,6 +1048,9 @@
       </c>
       <c r="K11" s="8" t="s">
         <v>57</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E1335-23C9-4F00-9432-F0DF74559538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EDA79-83D3-4704-A270-DF79E4329E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2052" windowWidth="23040" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>AbstractType</t>
   </si>
   <si>
     <t>Name</t>
@@ -196,18 +193,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Line</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>技能指示器类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CommonAttack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=,),float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -217,6 +206,26 @@
   </si>
   <si>
     <t>技能指示器参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleLine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESkillAbstractType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAbstractType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkill</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -640,15 +649,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="12.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" style="4" customWidth="1"/>
@@ -669,108 +679,108 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -780,14 +790,14 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="3">
         <v>1000</v>
@@ -802,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -815,14 +825,14 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="D5" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
@@ -837,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -850,14 +860,14 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>2</v>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
@@ -872,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -885,14 +895,14 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>1000</v>
@@ -907,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -920,14 +930,14 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
+      <c r="D8" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
@@ -942,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -955,14 +965,14 @@
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
+      <c r="D9" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
@@ -977,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -990,14 +1000,14 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
-        <v>2</v>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="3">
         <v>1000</v>
@@ -1012,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -1025,14 +1035,14 @@
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
-        <v>2</v>
+      <c r="D11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G11" s="3">
         <v>1000</v>
@@ -1047,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1077,7 +1087,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1090,55 +1100,55 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519DD6C-D877-436F-B92B-FE83BAEB0144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59554BE0-E0A4-41DA-9A66-4499FB15DEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,15 +775,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.21875" style="8" customWidth="1"/>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59554BE0-E0A4-41DA-9A66-4499FB15DEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B297052-75D7-40B7-9268-6100EB31B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -335,6 +335,14 @@
   </si>
   <si>
     <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionEventPlayEffect_Centre</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -981,7 +989,15 @@
       <c r="K4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1020,7 +1036,15 @@
       <c r="K5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1059,7 +1083,15 @@
       <c r="K6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1098,8 +1130,15 @@
       <c r="K7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O7" s="6" t="s">
         <v>39</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B297052-75D7-40B7-9268-6100EB31B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444218B-197A-4066-896E-5A86508E6610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -318,22 +318,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>50000,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>500</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -342,7 +326,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventPlayEffect_Centre</t>
+    <t>ActionEventPlayEffect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -784,27 +784,27 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="8" customWidth="1"/>
     <col min="9" max="9" width="23" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="8" customWidth="1"/>
     <col min="15" max="15" width="16" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -958,7 +958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7">
         <v>10001</v>
       </c>
@@ -978,22 +978,22 @@
         <v>3000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>80</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>10001</v>
       </c>
@@ -1025,22 +1025,22 @@
         <v>3000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>80</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>10001</v>
       </c>
@@ -1072,22 +1072,22 @@
         <v>3000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>80</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>10001</v>
       </c>
@@ -1119,22 +1119,22 @@
         <v>3000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>80</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>10002</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>56</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>10002</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>2000</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>56</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>10002</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>56</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>10002</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>56</v>
@@ -1325,19 +1325,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>67</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444218B-197A-4066-896E-5A86508E6610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E3E6E-CAEB-4E1E-970B-DE2357D7629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventPlayEffect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20000,10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -343,6 +339,18 @@
   </si>
   <si>
     <t>50000,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_PlayEffect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_RangeDamage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_Bullet</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -784,27 +792,27 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="23" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="8" customWidth="1"/>
     <col min="15" max="15" width="16" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -958,7 +966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>10001</v>
       </c>
@@ -981,16 +989,16 @@
         <v>82</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>83</v>
@@ -1005,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>10001</v>
       </c>
@@ -1028,16 +1036,16 @@
         <v>82</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>83</v>
@@ -1052,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>10001</v>
       </c>
@@ -1075,16 +1083,16 @@
         <v>82</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>83</v>
@@ -1099,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>10001</v>
       </c>
@@ -1122,16 +1130,16 @@
         <v>82</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>83</v>
@@ -1146,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>10002</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>82</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>81</v>
@@ -1187,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>10002</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>82</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>81</v>
@@ -1228,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>10002</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>81</v>
@@ -1269,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>10002</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>82</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>81</v>
@@ -1325,19 +1333,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1359,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>67</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E3E6E-CAEB-4E1E-970B-DE2357D7629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6BCF4-3505-4E73-A77A-E6D9B5A13C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20000,10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -342,15 +338,34 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AE_PlayEffect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AE_RangeDamage</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AE_Bullet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_PlayEffect,AE_PlaySound</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_PlaySound</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001;10001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -791,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -805,12 +820,12 @@
     <col min="6" max="6" width="18.21875" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="35" style="8" customWidth="1"/>
     <col min="13" max="13" width="22.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="16" style="8" customWidth="1"/>
     <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
@@ -989,22 +1004,22 @@
         <v>82</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>39</v>
@@ -1036,22 +1051,22 @@
         <v>82</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>39</v>
@@ -1083,22 +1098,22 @@
         <v>82</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -1130,22 +1145,22 @@
         <v>82</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>39</v>
@@ -1177,7 +1192,7 @@
         <v>82</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>81</v>
@@ -1185,9 +1200,15 @@
       <c r="K8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O8" s="6" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1239,7 @@
         <v>82</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>81</v>
@@ -1226,9 +1247,15 @@
       <c r="K9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O9" s="6" t="s">
         <v>38</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>81</v>
@@ -1267,9 +1294,15 @@
       <c r="K10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O10" s="6" t="s">
         <v>38</v>
       </c>
@@ -1300,7 +1333,7 @@
         <v>82</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>81</v>
@@ -1308,9 +1341,15 @@
       <c r="K11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O11" s="6" t="s">
         <v>38</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6BCF4-3505-4E73-A77A-E6D9B5A13C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F36EE-BCBE-4C25-8928-15BDAD670294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,22 +171,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventTriggerPercentServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionEventsClient</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionEventParamsClient</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionEventTriggerPercentClient</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>行为事件触发百分比(服务端)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -286,10 +270,6 @@
     <t>(list#sep=,),string</t>
   </si>
   <si>
-    <t>ActionEventsServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>行为事件(服务端)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -298,10 +278,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventParamsServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>行为事件参数(服务端)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -366,6 +342,30 @@
   </si>
   <si>
     <t>10001;10001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEsServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEParamsServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AETriggerPercentServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEsClient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEParamsClient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AETriggerPercentClient</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +807,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -821,11 +821,11 @@
     <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="24" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="8" customWidth="1"/>
     <col min="12" max="12" width="35" style="8" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15" style="8" customWidth="1"/>
     <col min="15" max="15" width="16" style="8" customWidth="1"/>
     <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>44</v>
@@ -916,7 +916,7 @@
         <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>44</v>
@@ -951,28 +951,28 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>34</v>
@@ -1001,25 +1001,25 @@
         <v>3000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>39</v>
@@ -1048,25 +1048,25 @@
         <v>3000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>39</v>
@@ -1095,25 +1095,25 @@
         <v>3000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -1142,25 +1142,25 @@
         <v>3000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>39</v>
@@ -1189,25 +1189,25 @@
         <v>2000</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>38</v>
@@ -1236,25 +1236,25 @@
         <v>2000</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>38</v>
@@ -1283,25 +1283,25 @@
         <v>2000</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>38</v>
@@ -1321,34 +1321,34 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7">
         <v>2000</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>38</v>
@@ -1386,7 +1386,7 @@
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1423,44 +1423,44 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F36EE-BCBE-4C25-8928-15BDAD670294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC04AD1-2A22-4CFE-99B5-6F0F1EE37DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventBullet</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>发射子弹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -215,10 +211,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventRangeDamage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>以自身为中心的范围伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -243,18 +235,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionEventSlash</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥砍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离(万分比)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间(毫秒)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -366,6 +346,34 @@
   </si>
   <si>
     <t>AETriggerPercentClient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_AddBuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为自身添加Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffConfigId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈1级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加治愈Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8011</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -497,6 +505,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -854,25 +865,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -907,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>44</v>
@@ -916,7 +927,7 @@
         <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>44</v>
@@ -951,16 +962,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>45</v>
@@ -1001,25 +1012,25 @@
         <v>3000</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="N4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>39</v>
@@ -1048,25 +1059,25 @@
         <v>3000</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="J5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="N5" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>39</v>
@@ -1095,25 +1106,25 @@
         <v>3000</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="N6" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -1142,25 +1153,25 @@
         <v>3000</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>39</v>
@@ -1189,25 +1200,25 @@
         <v>2000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>38</v>
@@ -1236,25 +1247,25 @@
         <v>2000</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>38</v>
@@ -1283,25 +1294,25 @@
         <v>2000</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>38</v>
@@ -1321,39 +1332,86 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7">
         <v>2000</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1369,7 +1427,7 @@
   <dimension ref="B4:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1464,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1423,44 +1481,41 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC04AD1-2A22-4CFE-99B5-6F0F1EE37DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C5737-ED6C-4286-BA2B-27D4EA57947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -163,14 +163,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=,),int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),(list#sep=,),int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>行为事件触发百分比(服务端)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -247,17 +239,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=,),string</t>
-  </si>
-  <si>
     <t>行为事件(服务端)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=,),string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>行为事件参数(服务端)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -302,10 +287,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AE_PlayEffect,AE_PlaySound</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AE_PlaySound</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -317,38 +298,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001;10001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEsServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEParamsServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AETriggerPercentServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEsClient</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AEParamsClient</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AETriggerPercentClient</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AE_AddBuff</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -374,6 +323,50 @@
   </si>
   <si>
     <t>8011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AEsClient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE_PlayEffect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AEParamsClient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,(list#sep=,),int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AETriggerPercentClient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AEsServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AEParamsServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*AETriggerPercentServer</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -509,6 +502,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,30 +811,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="14" style="8" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="35" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="8" customWidth="1"/>
     <col min="15" max="15" width="16" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="8" customWidth="1"/>
     <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -865,25 +861,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -918,22 +914,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>33</v>
@@ -962,28 +958,28 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>34</v>
@@ -992,7 +988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7">
         <v>10001</v>
       </c>
@@ -1005,32 +1001,32 @@
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7">
         <v>3000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>39</v>
@@ -1039,92 +1035,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>68</v>
-      </c>
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>10001</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="7">
         <v>3000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -1133,244 +1100,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
         <v>10001</v>
       </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
-        <v>10002</v>
-      </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="6"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="6"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
         <v>10002</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1378,40 +1258,228 @@
       <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>95</v>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G12" s="7">
         <v>2000</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="F16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P16" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1430,21 +1498,21 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1456,15 +1524,15 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1479,43 +1547,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C5737-ED6C-4286-BA2B-27D4EA57947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3CD67-6210-446D-9248-0AC75E1A130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1481,6 +1481,11 @@
       </c>
       <c r="P16" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
